--- a/RACI.xlsx
+++ b/RACI.xlsx
@@ -142,7 +142,7 @@
     <t xml:space="preserve">Groupe</t>
   </si>
   <si>
-    <t xml:space="preserve">en cours</t>
+    <t xml:space="preserve">Terminée</t>
   </si>
   <si>
     <t xml:space="preserve">1.2</t>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yoann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non démarrée</t>
   </si>
   <si>
     <t xml:space="preserve">1.3</t>
@@ -167,9 +164,6 @@
   </si>
   <si>
     <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminée</t>
   </si>
   <si>
     <t xml:space="preserve">1.4</t>
@@ -185,6 +179,9 @@
   </si>
   <si>
     <t xml:space="preserve">[GUI] Activité n °1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en cours</t>
   </si>
   <si>
     <t xml:space="preserve">2.2</t>
@@ -212,6 +209,9 @@
   </si>
   <si>
     <t xml:space="preserve">Adrien, Titouan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non démarrée</t>
   </si>
   <si>
     <t xml:space="preserve">Communication FastAPI</t>
@@ -1000,74 +1000,74 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="173" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="175" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="177" fontId="21" fillId="7" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="172" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="175" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="177" fontId="21" fillId="7" borderId="0" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="172" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1084,7 +1084,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1145,7 +1145,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="49">
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1403,126 +1403,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFFFF"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <colors>
     <indexedColors>
@@ -1599,13 +1479,13 @@
   </sheetPr>
   <dimension ref="A1:CY43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P22" activeCellId="0" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="37.86"/>
@@ -1760,7 +1640,7 @@
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="19" t="n">
-        <v>45971</v>
+        <v>46044</v>
       </c>
       <c r="X4" s="19"/>
       <c r="Y4" s="19"/>
@@ -3165,7 +3045,7 @@
       </c>
       <c r="O12" s="53" t="n">
         <f aca="false">AVERAGE(O13:O15)</f>
-        <v>0.333333333333333</v>
+        <v>1</v>
       </c>
       <c r="P12" s="54"/>
       <c r="Q12" s="55"/>
@@ -3286,7 +3166,7 @@
       <c r="M13" s="71"/>
       <c r="N13" s="72"/>
       <c r="O13" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" s="74" t="s">
         <v>35</v>
@@ -3409,10 +3289,10 @@
       <c r="M14" s="71"/>
       <c r="N14" s="72"/>
       <c r="O14" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q14" s="75"/>
       <c r="R14" s="76"/>
@@ -3507,17 +3387,17 @@
         <v>29</v>
       </c>
       <c r="B15" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="80" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="80" t="s">
-        <v>41</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="64" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15" s="66" t="s">
         <v>34</v>
@@ -3526,7 +3406,7 @@
         <v>34</v>
       </c>
       <c r="I15" s="68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="69"/>
       <c r="K15" s="70"/>
@@ -3536,8 +3416,8 @@
       <c r="O15" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="P15" s="81" t="s">
-        <v>44</v>
+      <c r="P15" s="74" t="s">
+        <v>35</v>
       </c>
       <c r="Q15" s="75"/>
       <c r="R15" s="76"/>
@@ -3632,10 +3512,10 @@
         <v>29</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="64" t="s">
@@ -3656,9 +3536,11 @@
       <c r="L16" s="71"/>
       <c r="M16" s="71"/>
       <c r="N16" s="72"/>
-      <c r="O16" s="73"/>
+      <c r="O16" s="73" t="n">
+        <v>1</v>
+      </c>
       <c r="P16" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q16" s="75"/>
       <c r="R16" s="76"/>
@@ -3749,36 +3631,36 @@
       <c r="CY16" s="79"/>
     </row>
     <row r="17" s="60" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82"/>
-      <c r="B17" s="83" t="n">
+      <c r="A17" s="81"/>
+      <c r="B17" s="82" t="n">
         <v>2</v>
       </c>
-      <c r="C17" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="86"/>
-      <c r="L17" s="87" t="str">
+      <c r="C17" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86" t="str">
         <f aca="false">IF(MIN(L18:L22)&gt;0,MIN(L18:L22),"")</f>
         <v/>
       </c>
-      <c r="M17" s="87" t="str">
+      <c r="M17" s="86" t="str">
         <f aca="false">IF(MAX(M18:M22)&gt;0,MAX(M18:M22),"")</f>
         <v/>
       </c>
-      <c r="N17" s="88" t="e">
+      <c r="N17" s="87" t="e">
         <f aca="false">IF(OR(L17=0,M17=0),"",NETWORKDAYS(L17,M17))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O17" s="89" t="n">
+      <c r="O17" s="88" t="n">
         <f aca="false">AVERAGE(O18:O22)</f>
-        <v>0.13</v>
+        <v>0.65</v>
       </c>
       <c r="P17" s="54"/>
       <c r="Q17" s="55"/>
@@ -3874,14 +3756,14 @@
         <v>29</v>
       </c>
       <c r="B18" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="90"/>
+        <v>46</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="89"/>
       <c r="E18" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F18" s="65" t="s">
         <v>33</v>
@@ -3904,8 +3786,8 @@
       <c r="O18" s="73" t="n">
         <v>0.65</v>
       </c>
-      <c r="P18" s="74" t="s">
-        <v>35</v>
+      <c r="P18" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="Q18" s="91"/>
       <c r="R18" s="76"/>
@@ -4000,17 +3882,17 @@
         <v>29</v>
       </c>
       <c r="B19" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="89" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="90" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="89"/>
       <c r="E19" s="64" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G19" s="66" t="s">
         <v>34</v>
@@ -4028,10 +3910,10 @@
         <v/>
       </c>
       <c r="O19" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" s="74" t="s">
-        <v>35</v>
+        <v>0.65</v>
+      </c>
+      <c r="P19" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="Q19" s="91"/>
       <c r="R19" s="76"/>
@@ -4126,14 +4008,14 @@
         <v>29</v>
       </c>
       <c r="B20" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="89" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="90"/>
+      <c r="D20" s="89"/>
       <c r="E20" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F20" s="65" t="s">
         <v>33</v>
@@ -4154,10 +4036,10 @@
         <v/>
       </c>
       <c r="O20" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="74" t="s">
-        <v>39</v>
+        <v>0.65</v>
+      </c>
+      <c r="P20" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="Q20" s="91"/>
       <c r="R20" s="76"/>
@@ -4252,17 +4134,17 @@
         <v>29</v>
       </c>
       <c r="B21" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="89" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="90" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="64" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21" s="66" t="s">
         <v>34</v>
@@ -4280,10 +4162,10 @@
         <v/>
       </c>
       <c r="O21" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" s="74" t="s">
-        <v>39</v>
+        <v>0.65</v>
+      </c>
+      <c r="P21" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="Q21" s="91"/>
       <c r="R21" s="76"/>
@@ -4378,12 +4260,12 @@
         <v>29</v>
       </c>
       <c r="B22" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="90" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="89"/>
       <c r="E22" s="64" t="s">
         <v>33</v>
       </c>
@@ -4406,10 +4288,10 @@
         <v/>
       </c>
       <c r="O22" s="73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" s="74" t="s">
-        <v>39</v>
+        <v>0.65</v>
+      </c>
+      <c r="P22" s="90" t="s">
+        <v>48</v>
       </c>
       <c r="Q22" s="91"/>
       <c r="R22" s="76"/>
@@ -4504,14 +4386,14 @@
         <v>29</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C23" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D23" s="80"/>
       <c r="E23" s="64" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F23" s="65" t="s">
         <v>32</v>
@@ -4529,8 +4411,8 @@
       <c r="M23" s="71"/>
       <c r="N23" s="72"/>
       <c r="O23" s="73"/>
-      <c r="P23" s="74" t="s">
-        <v>39</v>
+      <c r="P23" s="90" t="s">
+        <v>58</v>
       </c>
       <c r="Q23" s="75"/>
       <c r="R23" s="76"/>
@@ -4621,7 +4503,7 @@
       <c r="CY23" s="79"/>
     </row>
     <row r="24" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A24" s="82"/>
+      <c r="A24" s="81"/>
       <c r="B24" s="94" t="n">
         <v>3</v>
       </c>
@@ -4636,21 +4518,21 @@
       <c r="I24" s="97"/>
       <c r="J24" s="96"/>
       <c r="K24" s="97"/>
-      <c r="L24" s="87" t="str">
+      <c r="L24" s="86" t="str">
         <f aca="false">IF(MIN(L25:L27)&gt;0,MIN(L25:L27),"")</f>
         <v/>
       </c>
-      <c r="M24" s="87" t="str">
+      <c r="M24" s="86" t="str">
         <f aca="false">IF(MAX(M25:M27)&gt;0,MAX(M25:M27),"")</f>
         <v/>
       </c>
-      <c r="N24" s="88" t="e">
+      <c r="N24" s="87" t="e">
         <f aca="false">IF(OR(L24=0,M24=0),"",NETWORKDAYS(L24,M24))</f>
         <v>#VALUE!</v>
       </c>
       <c r="O24" s="98" t="n">
         <f aca="false">AVERAGE(O25)</f>
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="P24" s="99"/>
       <c r="Q24" s="75"/>
@@ -4772,7 +4654,7 @@
         <v/>
       </c>
       <c r="O25" s="73" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="P25" s="74" t="s">
         <v>35</v>
@@ -4898,10 +4780,10 @@
         <v/>
       </c>
       <c r="O26" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q26" s="91"/>
       <c r="R26" s="76"/>
@@ -5024,7 +4906,7 @@
         <v/>
       </c>
       <c r="O27" s="73" t="n">
-        <v>0.45</v>
+        <v>1</v>
       </c>
       <c r="P27" s="74" t="s">
         <v>35</v>
@@ -5122,10 +5004,10 @@
         <v>29</v>
       </c>
       <c r="B28" s="62" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C28" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D28" s="80"/>
       <c r="E28" s="64" t="s">
@@ -5146,9 +5028,11 @@
       <c r="L28" s="71"/>
       <c r="M28" s="71"/>
       <c r="N28" s="72"/>
-      <c r="O28" s="73"/>
+      <c r="O28" s="73" t="n">
+        <v>1</v>
+      </c>
       <c r="P28" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="75"/>
       <c r="R28" s="76"/>
@@ -5239,7 +5123,7 @@
       <c r="CY28" s="79"/>
     </row>
     <row r="29" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A29" s="82"/>
+      <c r="A29" s="81"/>
       <c r="B29" s="94" t="s">
         <v>65</v>
       </c>
@@ -5253,16 +5137,16 @@
       <c r="H29" s="96"/>
       <c r="I29" s="97"/>
       <c r="J29" s="97"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="88" t="e">
+      <c r="K29" s="85"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="87" t="e">
         <f aca="false">#VALUE!</f>
         <v>#VALUE!</v>
       </c>
       <c r="O29" s="99" t="n">
         <f aca="false">AVERAGE(O30:O32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" s="99"/>
       <c r="Q29" s="75"/>
@@ -5386,10 +5270,10 @@
         <v/>
       </c>
       <c r="O30" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q30" s="91"/>
       <c r="R30" s="76"/>
@@ -5491,7 +5375,7 @@
       </c>
       <c r="D31" s="100"/>
       <c r="E31" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F31" s="65" t="s">
         <v>32</v>
@@ -5512,10 +5396,10 @@
         <v/>
       </c>
       <c r="O31" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="91"/>
       <c r="R31" s="76"/>
@@ -5617,7 +5501,7 @@
       </c>
       <c r="D32" s="100"/>
       <c r="E32" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F32" s="65" t="s">
         <v>32</v>
@@ -5638,10 +5522,10 @@
         <v/>
       </c>
       <c r="O32" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="Q32" s="91"/>
       <c r="R32" s="76"/>
@@ -5732,7 +5616,7 @@
       <c r="CY32" s="79"/>
     </row>
     <row r="33" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="1" collapsed="false">
-      <c r="A33" s="82"/>
+      <c r="A33" s="81"/>
       <c r="B33" s="94" t="s">
         <v>73</v>
       </c>
@@ -5746,16 +5630,16 @@
       <c r="H33" s="96"/>
       <c r="I33" s="97"/>
       <c r="J33" s="97"/>
-      <c r="K33" s="86"/>
-      <c r="L33" s="87"/>
-      <c r="M33" s="87"/>
-      <c r="N33" s="88" t="e">
+      <c r="K33" s="85"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
+      <c r="N33" s="87" t="e">
         <f aca="false">#VALUE!</f>
         <v>#VALUE!</v>
       </c>
       <c r="O33" s="99" t="n">
         <f aca="false">AVERAGE(O34:O36)</f>
-        <v>0</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="P33" s="99"/>
       <c r="Q33" s="102"/>
@@ -5879,10 +5763,10 @@
         <v/>
       </c>
       <c r="O34" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5893,11 +5777,11 @@
         <v>69</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="100"/>
       <c r="E35" s="64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F35" s="65" t="s">
         <v>32</v>
@@ -5920,8 +5804,8 @@
       <c r="O35" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="P35" s="74" t="s">
-        <v>39</v>
+      <c r="P35" s="90" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5959,8 +5843,8 @@
       <c r="O36" s="73" t="n">
         <v>0</v>
       </c>
-      <c r="P36" s="74" t="s">
-        <v>39</v>
+      <c r="P36" s="90" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5996,10 +5880,10 @@
         <v/>
       </c>
       <c r="O37" s="73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="74" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,18 +5897,18 @@
       <c r="P40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P41" s="81" t="s">
-        <v>44</v>
+      <c r="P41" s="74" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P42" s="74" t="s">
-        <v>35</v>
+      <c r="P42" s="90" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="P43" s="74" t="s">
-        <v>39</v>
+      <c r="P43" s="90" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -6089,7 +5973,7 @@
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
   </mergeCells>
-  <conditionalFormatting sqref="O11:P12 O24:P24 O17:P17 O13:O16 O24:O26 O30:O32 O18:O21">
+  <conditionalFormatting sqref="O11:P12 O24:P24 O17:P17 O15 O18">
     <cfRule type="dataBar" priority="2">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6098,13 +5982,76 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55DD23AE-7AD8-4B9A-B177-C06DDA3F41C0}</x14:id>
+          <x14:id>{C7D9FF5F-8C11-4710-8524-30DE7A238580}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="P23">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+      <formula>"Terminée"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>"Bloquée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CY29:CY33 Q12:CY28 CX29:CX33 Q29:CW33">
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>AND($O12&gt;5%, $L12&lt;=Q$10,ROUNDDOWN(NETWORKDAYS($L12,$M12)*$O12,0)+$L12&gt;=Q$10)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>AND(NOT(ISBLANK($L12)),$L12&lt;Q$10,M$12&gt;=Q$10)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18:P22 P43">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>"Terminée"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>"Bloquée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P16 P43 P41 P25:P28 P30:P32 P34 P37">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>"Terminée"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
+      <formula>"Bloquée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36 P43">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+      <formula>"Terminée"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+      <formula>"Bloquée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+      <formula>"Terminée"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
+      <formula>"En cours"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
+      <formula>"Bloquée"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P15">
+    <cfRule type="dataBar" priority="20">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6112,24 +6059,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A7B8C00-E89E-41CE-BC30-007047BCF2CF}</x14:id>
+          <x14:id>{E2F9E156-C7B4-4FC5-9488-FE4F7E815383}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P14 P16 P23 P28">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="P18">
+    <cfRule type="dataBar" priority="21">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6137,95 +6073,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E89DC2A8-AC88-4B23-9382-9F69582CCF10}</x14:id>
+          <x14:id>{9080DFEE-A85A-42CA-9A41-10FEBEDAB095}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="dataBar" priority="8">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5C51C02E-E5C0-46DF-A920-D1C432B6FBBD}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CY29:CY33 Q12:CY28 CX29:CX33 Q29:CW33">
-    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
-      <formula>AND($O12&gt;5%, $L12&lt;=Q$10,ROUNDDOWN(NETWORKDAYS($L12,$M12)*$O12,0)+$L12&gt;=Q$10)</formula>
-    </cfRule>
-    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
-      <formula>AND(NOT(ISBLANK($L12)),$L12&lt;Q$10,M$12&gt;=Q$10)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20">
-    <cfRule type="dataBar" priority="14">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CB2B9EF8-5C60-43B3-8770-C4E172B012AA}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P21">
-    <cfRule type="dataBar" priority="18">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{984D28A1-187D-49D4-8367-EB2F30932E3F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P26">
     <cfRule type="dataBar" priority="22">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6234,46 +6085,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{EF4BEF99-402A-41A6-87DA-E54F3A72471F}</x14:id>
+          <x14:id>{EAC48B9F-57E9-48A4-8836-1E2EC3CB5050}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13 P18:P19 P25 P27 P43">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P15 P43 P41">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32 P36:P37 P43">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
-      <formula>"Bloquée"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P32">
-    <cfRule type="dataBar" priority="32">
+  <conditionalFormatting sqref="P19">
+    <cfRule type="dataBar" priority="23">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -6281,23 +6099,145 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E03C8B20-24CB-494D-A883-94ECCF3BA7CC}</x14:id>
+          <x14:id>{B2EFC616-58E0-4660-815F-B7AB6ABFD4DE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="24">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4A3EFEFD-A0A7-477B-8F40-3320238A9B40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31 P35">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
+  <conditionalFormatting sqref="O39:O40">
+    <cfRule type="dataBar" priority="25">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9AA5B26A-E057-46D1-B853-2346C0ED4B6F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O35:O36">
+    <cfRule type="dataBar" priority="26">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B74E6EC5-2ABC-49E8-87D8-CC32163C2D61}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P36">
+    <cfRule type="dataBar" priority="27">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3CB17CF6-F53B-456E-8063-995D6244D89A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P35">
+    <cfRule type="dataBar" priority="28">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F7963FB1-4223-4D90-8D3F-A3D0679D9F1E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="dataBar" priority="29">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6BFB3E26-B720-4CDC-99E9-19AB4095BBB0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+    <cfRule type="dataBar" priority="30">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{163F5EC0-4CC2-411C-B08A-AE6696BA565F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="dataBar" priority="31">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95A2D2E5-5E90-48A4-83A5-6F44F057708C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>"Terminée"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>"En cours"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>"Bloquée"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P31">
+  <conditionalFormatting sqref="P43">
+    <cfRule type="dataBar" priority="35">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71E45572-74D4-4521-B459-FDA2F7F73AF9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P43">
     <cfRule type="dataBar" priority="36">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6306,23 +6246,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A27DFD8-2628-4C28-A410-634AD5B99E78}</x14:id>
+          <x14:id>{74406718-8260-4938-B4A0-F87499F125D5}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30 P34">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
-      <formula>"Bloquée"</formula>
+  <conditionalFormatting sqref="P41">
+    <cfRule type="dataBar" priority="37">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E0952566-9830-433E-B690-6070BEDCD0DC}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P30">
+  <conditionalFormatting sqref="O23">
+    <cfRule type="dataBar" priority="38">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EFD14456-3156-4AF5-AEE3-ED4CC0EA2163}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
+    <cfRule type="dataBar" priority="39">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{68E35883-703A-4FB8-8BCD-D2A9404F55ED}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P23">
     <cfRule type="dataBar" priority="40">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6331,12 +6302,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9FDF3A77-C5F1-47B3-A5EE-CB724D5AAC80}</x14:id>
+          <x14:id>{841FDA2F-94F1-4394-BAFD-BE60E01078FB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15">
+  <conditionalFormatting sqref="P23">
     <cfRule type="dataBar" priority="41">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6345,12 +6316,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29433D90-F430-41CA-BD2E-AC601B4725E5}</x14:id>
+          <x14:id>{BED94DED-8C9F-43B4-AEBC-A0F91793956C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
+  <conditionalFormatting sqref="O14">
     <cfRule type="dataBar" priority="42">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6359,10 +6330,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{562FC13B-DC40-428B-A678-49F0EDDF2ED9}</x14:id>
+          <x14:id>{6DB6183B-332E-4EB9-A431-D783992EC700}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
     <cfRule type="dataBar" priority="43">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6371,12 +6344,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4281A0FC-2575-40F0-B0B2-90622590F8A4}</x14:id>
+          <x14:id>{8B502DA1-6A24-489D-BFD1-62C09EC12D1D}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P18">
+  <conditionalFormatting sqref="P14">
     <cfRule type="dataBar" priority="44">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6385,10 +6358,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9035F014-167C-44A0-B22C-B987111CEBBC}</x14:id>
+          <x14:id>{624FAF50-40E0-4E99-951F-3D5A22B08661}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
     <cfRule type="dataBar" priority="45">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6397,12 +6372,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C7456046-E148-4BF8-ADD2-483A37F66D28}</x14:id>
+          <x14:id>{AB7756AB-6761-4CF0-A2F0-47FDC5AC2659}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19">
+  <conditionalFormatting sqref="O16">
     <cfRule type="dataBar" priority="46">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6411,10 +6386,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{49CB562D-90F0-4D92-84AF-DCEA32817377}</x14:id>
+          <x14:id>{6D347038-11E9-4D1B-B42B-C83BC4A362C1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O25">
     <cfRule type="dataBar" priority="47">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6423,12 +6400,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3C268D4E-80AE-469F-A629-22EC948FAA96}</x14:id>
+          <x14:id>{61FCF349-948E-44A9-BEF7-CBDE474160FE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P25">
+  <conditionalFormatting sqref="O26">
     <cfRule type="dataBar" priority="48">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6437,10 +6414,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C378F424-87D7-447C-B460-67C222DB6A95}</x14:id>
+          <x14:id>{1092B59F-A680-459A-9A19-F05BD016F096}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27">
     <cfRule type="dataBar" priority="49">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6449,12 +6428,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E21016DC-A6CD-40C0-B8A5-D91921544ED4}</x14:id>
+          <x14:id>{3BE2C38D-D46C-416A-86A0-38C55485F4A4}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P27">
+  <conditionalFormatting sqref="O28">
     <cfRule type="dataBar" priority="50">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6463,10 +6442,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1EAF4487-5BF2-49D3-A2EB-8A60C34CE740}</x14:id>
+          <x14:id>{835D2B11-A034-41E8-AA55-BE84AE6FAE6C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16">
     <cfRule type="dataBar" priority="51">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6475,12 +6456,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{72CB7FE9-7873-40FF-81F3-AB4080752575}</x14:id>
+          <x14:id>{226BEB5D-BF9B-4DEC-ACD4-2A979FE0D58C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
+  <conditionalFormatting sqref="P25">
     <cfRule type="dataBar" priority="52">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6489,12 +6470,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AFEE3F2C-6D6D-4EEB-9A6C-CB38ABCB5427}</x14:id>
+          <x14:id>{A2788288-4981-4E8A-9557-8785FFA68060}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O39:O40">
+  <conditionalFormatting sqref="P26">
     <cfRule type="dataBar" priority="53">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6503,12 +6484,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{82B88B5C-25D3-47C7-967B-C08F7026D74C}</x14:id>
+          <x14:id>{902C45A4-293E-4847-BB51-F181671CDBB1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34:O36">
+  <conditionalFormatting sqref="P27">
     <cfRule type="dataBar" priority="54">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6517,12 +6498,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CF881D2-369A-47D1-82E6-FA4A65946FB8}</x14:id>
+          <x14:id>{D6D09DED-E158-46C0-97D0-99952678AC15}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P36">
+  <conditionalFormatting sqref="P28">
     <cfRule type="dataBar" priority="55">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6531,12 +6512,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5FC12A2C-56AC-47C7-9D84-88E5E531E7A4}</x14:id>
+          <x14:id>{155B1027-6AEF-48C0-A17A-6BFE1F4D2266}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P35">
+  <conditionalFormatting sqref="O30">
     <cfRule type="dataBar" priority="56">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6545,12 +6526,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90244159-1D85-46F0-821D-4C72F526BF16}</x14:id>
+          <x14:id>{38A9F535-4F61-46A1-B82F-8B566EC0C79E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P34">
+  <conditionalFormatting sqref="O31">
     <cfRule type="dataBar" priority="57">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6559,12 +6540,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1CE71662-E2D0-4266-9A9A-31372E5D9028}</x14:id>
+          <x14:id>{4DD7D88E-957C-49A6-BDBC-FB4AC0A6BBFC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
+  <conditionalFormatting sqref="O32">
     <cfRule type="dataBar" priority="58">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6573,10 +6554,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2BDC87AF-1E89-4D20-8370-DB1814348D60}</x14:id>
+          <x14:id>{8F9D8F14-A2ED-499C-AC7D-7DE013BDCCFA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P30">
     <cfRule type="dataBar" priority="59">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6585,12 +6568,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCADE0B0-E439-45CA-A333-8E181135E170}</x14:id>
+          <x14:id>{4A8C6D50-F8AB-47F5-B0D0-191017E5B013}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
+  <conditionalFormatting sqref="P31">
     <cfRule type="dataBar" priority="60">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6599,23 +6582,54 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DCC7DE1F-7F80-4FBD-B8B0-B86053A6C4EE}</x14:id>
+          <x14:id>{DBBC27AB-643D-451D-9792-D15DA5CFE089}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
-      <formula>"Terminée"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
-      <formula>"Bloquée"</formula>
+  <conditionalFormatting sqref="P32">
+    <cfRule type="dataBar" priority="61">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{156F48F7-D0F0-4C70-8D26-D463DBBDDC58}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
+  <conditionalFormatting sqref="O34">
+    <cfRule type="dataBar" priority="62">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E5A5274D-6354-498B-A5E2-5DD14E45D7C6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O37">
+    <cfRule type="dataBar" priority="63">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{64FFC0D0-703D-4571-AB72-CE96D316FDDF}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P34">
     <cfRule type="dataBar" priority="64">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6624,12 +6638,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAB6BED8-7C12-4DE3-8642-46BA4C936490}</x14:id>
+          <x14:id>{66E0AF90-32AB-4A17-ABA8-BE49FE53E9CB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P43">
+  <conditionalFormatting sqref="P37">
     <cfRule type="dataBar" priority="65">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6638,12 +6652,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A388B63-BEAD-4077-A49C-7848C711A793}</x14:id>
+          <x14:id>{4847A6B9-A528-4F21-A1BC-9BC634103D60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P41">
+  <conditionalFormatting sqref="O19">
     <cfRule type="dataBar" priority="66">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6652,12 +6666,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5281F452-FF85-43A2-8ACC-8D82517BBFF2}</x14:id>
+          <x14:id>{90A8D04B-2B75-42D2-A6F0-E2294E34C8CA}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O37">
+  <conditionalFormatting sqref="O20">
     <cfRule type="dataBar" priority="67">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6666,12 +6680,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DB79D5FC-8623-46BA-9764-5F3E2FB39A2B}</x14:id>
+          <x14:id>{ED8133D4-A7A9-4351-A95C-184AFE78AC66}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P37">
+  <conditionalFormatting sqref="O21">
     <cfRule type="dataBar" priority="68">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6680,7 +6694,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E46DAC76-E897-4045-8465-1788B562CB5D}</x14:id>
+          <x14:id>{49C120DE-728D-47B4-B55E-889AE781B48E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6694,23 +6708,50 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7A6B6862-4DFF-40A3-A9F0-3D4C3D3D779B}</x14:id>
+          <x14:id>{A52E509C-C8A0-44E5-9C1B-26DEC0613381}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
-      <formula>"Terminée"</formula>
+  <conditionalFormatting sqref="P20">
+    <cfRule type="dataBar" priority="70">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{684D60F2-58D7-48F8-9D7D-3D6D7CDB3844}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>"En cours"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
-      <formula>"Bloquée"</formula>
+    <cfRule type="dataBar" priority="71">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F800D1ED-F817-4AD7-A94A-8AD532C930EB}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P22">
+  <conditionalFormatting sqref="P21">
+    <cfRule type="dataBar" priority="72">
+      <dataBar showValue="1" minLength="10" maxLength="90">
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color rgb="FF00B050"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B4D076E6-DE50-4F8F-866A-39501E1E25A9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
     <cfRule type="dataBar" priority="73">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6719,12 +6760,12 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36BBD664-203B-4631-8C9D-1F4BA94E42FF}</x14:id>
+          <x14:id>{8EC03ABA-49A5-42D3-99F4-4DA2E6938231}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O23">
+  <conditionalFormatting sqref="P22">
     <cfRule type="dataBar" priority="74">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6733,12 +6774,10 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2D394EE3-CF63-4E6F-8297-26D35F3A83E2}</x14:id>
+          <x14:id>{3763A889-1127-4D20-8BB7-5637C12E4029}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
     <cfRule type="dataBar" priority="75">
       <dataBar showValue="1" minLength="10" maxLength="90">
         <cfvo type="num" val="0"/>
@@ -6747,133 +6786,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E89EB66-182A-45E0-8C50-C5341E6E4197}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="dataBar" priority="76">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1A9D89D4-D65D-4DE4-B74F-12273D486FB1}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16">
-    <cfRule type="dataBar" priority="77">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9A9D8765-A09D-446B-BF66-74A350E070CB}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="dataBar" priority="78">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{86E4259F-E9F4-419F-BDB8-BB8EFC81956E}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="dataBar" priority="79">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DBC39673-F27B-443E-ACD0-87F8BEADB72F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P23">
-    <cfRule type="dataBar" priority="80">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF2449F8-E967-4147-B4C8-7B62D8C2564D}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O28">
-    <cfRule type="dataBar" priority="81">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAF32E59-878A-4CE0-9AAB-5C9D8123B898}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="dataBar" priority="82">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{651A4040-D86D-4E99-948C-A6B7F0C58836}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="dataBar" priority="83">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B6591D9F-83EB-4E94-8870-93A6E0284868}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P28">
-    <cfRule type="dataBar" priority="84">
-      <dataBar showValue="1" minLength="10" maxLength="90">
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color rgb="FF00B050"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F780785A-6130-41B9-8319-D2B81794904F}</x14:id>
+          <x14:id>{94E636AD-8F19-4649-AECC-DA7B30EF6C99}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -6896,7 +6809,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55DD23AE-7AD8-4B9A-B177-C06DDA3F41C0}">
+          <x14:cfRule type="dataBar" id="{C7D9FF5F-8C11-4710-8524-30DE7A238580}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6908,10 +6821,316 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>O11:P12 O24:P24 O17:P17 O13:O16 O24:O26 O30:O32 O18:O21</xm:sqref>
+          <xm:sqref>O11:P12 O24:P24 O17:P17 O15 O18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A7B8C00-E89E-41CE-BC30-007047BCF2CF}">
+          <x14:cfRule type="dataBar" id="{E2F9E156-C7B4-4FC5-9488-FE4F7E815383}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P15</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9080DFEE-A85A-42CA-9A41-10FEBEDAB095}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{EAC48B9F-57E9-48A4-8836-1E2EC3CB5050}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B2EFC616-58E0-4660-815F-B7AB6ABFD4DE}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{4A3EFEFD-A0A7-477B-8F40-3320238A9B40}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9AA5B26A-E057-46D1-B853-2346C0ED4B6F}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O39:O40</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B74E6EC5-2ABC-49E8-87D8-CC32163C2D61}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O35:O36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3CB17CF6-F53B-456E-8063-995D6244D89A}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F7963FB1-4223-4D90-8D3F-A3D0679D9F1E}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6BFB3E26-B720-4CDC-99E9-19AB4095BBB0}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{163F5EC0-4CC2-411C-B08A-AE6696BA565F}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95A2D2E5-5E90-48A4-83A5-6F44F057708C}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71E45572-74D4-4521-B459-FDA2F7F73AF9}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{74406718-8260-4938-B4A0-F87499F125D5}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P43</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E0952566-9830-433E-B690-6070BEDCD0DC}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P41</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EFD14456-3156-4AF5-AEE3-ED4CC0EA2163}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{68E35883-703A-4FB8-8BCD-D2A9404F55ED}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{841FDA2F-94F1-4394-BAFD-BE60E01078FB}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BED94DED-8C9F-43B4-AEBC-A0F91793956C}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DB6183B-332E-4EB9-A431-D783992EC700}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O14</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8B502DA1-6A24-489D-BFD1-62C09EC12D1D}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{624FAF50-40E0-4E99-951F-3D5A22B08661}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6926,7 +7145,7 @@
           <xm:sqref>P14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E89DC2A8-AC88-4B23-9382-9F69582CCF10}">
+          <x14:cfRule type="dataBar" id="{AB7756AB-6761-4CF0-A2F0-47FDC5AC2659}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6938,10 +7157,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P14</xm:sqref>
+          <xm:sqref>P13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5C51C02E-E5C0-46DF-A920-D1C432B6FBBD}">
+          <x14:cfRule type="dataBar" id="{6D347038-11E9-4D1B-B42B-C83BC4A362C1}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6953,10 +7172,367 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P14</xm:sqref>
+          <xm:sqref>O16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CB2B9EF8-5C60-43B3-8770-C4E172B012AA}">
+          <x14:cfRule type="dataBar" id="{61FCF349-948E-44A9-BEF7-CBDE474160FE}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1092B59F-A680-459A-9A19-F05BD016F096}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3BE2C38D-D46C-416A-86A0-38C55485F4A4}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{835D2B11-A034-41E8-AA55-BE84AE6FAE6C}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{226BEB5D-BF9B-4DEC-ACD4-2A979FE0D58C}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P16</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A2788288-4981-4E8A-9557-8785FFA68060}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{902C45A4-293E-4847-BB51-F181671CDBB1}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D6D09DED-E158-46C0-97D0-99952678AC15}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{155B1027-6AEF-48C0-A17A-6BFE1F4D2266}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P28</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{38A9F535-4F61-46A1-B82F-8B566EC0C79E}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4DD7D88E-957C-49A6-BDBC-FB4AC0A6BBFC}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{8F9D8F14-A2ED-499C-AC7D-7DE013BDCCFA}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4A8C6D50-F8AB-47F5-B0D0-191017E5B013}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DBBC27AB-643D-451D-9792-D15DA5CFE089}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{156F48F7-D0F0-4C70-8D26-D463DBBDDC58}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E5A5274D-6354-498B-A5E2-5DD14E45D7C6}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{64FFC0D0-703D-4571-AB72-CE96D316FDDF}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{66E0AF90-32AB-4A17-ABA8-BE49FE53E9CB}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P34</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4847A6B9-A528-4F21-A1BC-9BC634103D60}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>P37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{90A8D04B-2B75-42D2-A6F0-E2294E34C8CA}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{ED8133D4-A7A9-4351-A95C-184AFE78AC66}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{49C120DE-728D-47B4-B55E-889AE781B48E}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O21</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A52E509C-C8A0-44E5-9C1B-26DEC0613381}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>O22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{684D60F2-58D7-48F8-9D7D-3D6D7CDB3844}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{F800D1ED-F817-4AD7-A94A-8AD532C930EB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6971,7 +7547,19 @@
           <xm:sqref>P20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{984D28A1-187D-49D4-8367-EB2F30932E3F}">
+          <x14:cfRule type="dataBar" id="{B4D076E6-DE50-4F8F-866A-39501E1E25A9}">
+            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <x14:cfRule type="dataBar" id="{8EC03ABA-49A5-42D3-99F4-4DA2E6938231}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6986,7 +7574,7 @@
           <xm:sqref>P21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{EF4BEF99-402A-41A6-87DA-E54F3A72471F}">
+          <x14:cfRule type="dataBar" id="{3763A889-1127-4D20-8BB7-5637C12E4029}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -6998,427 +7586,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>P26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E03C8B20-24CB-494D-A883-94ECCF3BA7CC}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7A27DFD8-2628-4C28-A410-634AD5B99E78}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9FDF3A77-C5F1-47B3-A5EE-CB724D5AAC80}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29433D90-F430-41CA-BD2E-AC601B4725E5}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P15</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{562FC13B-DC40-428B-A678-49F0EDDF2ED9}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{4281A0FC-2575-40F0-B0B2-90622590F8A4}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P13</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9035F014-167C-44A0-B22C-B987111CEBBC}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{C7456046-E148-4BF8-ADD2-483A37F66D28}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P18</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{49CB562D-90F0-4D92-84AF-DCEA32817377}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{3C268D4E-80AE-469F-A629-22EC948FAA96}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P19</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C378F424-87D7-447C-B460-67C222DB6A95}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{E21016DC-A6CD-40C0-B8A5-D91921544ED4}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1EAF4487-5BF2-49D3-A2EB-8A60C34CE740}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{72CB7FE9-7873-40FF-81F3-AB4080752575}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{AFEE3F2C-6D6D-4EEB-9A6C-CB38ABCB5427}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O27</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{82B88B5C-25D3-47C7-967B-C08F7026D74C}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O39:O40</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CF881D2-369A-47D1-82E6-FA4A65946FB8}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O34:O36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5FC12A2C-56AC-47C7-9D84-88E5E531E7A4}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90244159-1D85-46F0-821D-4C72F526BF16}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P35</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1CE71662-E2D0-4266-9A9A-31372E5D9028}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P34</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2BDC87AF-1E89-4D20-8370-DB1814348D60}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <x14:cfRule type="dataBar" id="{DCADE0B0-E439-45CA-A333-8E181135E170}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DCC7DE1F-7F80-4FBD-B8B0-B86053A6C4EE}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAB6BED8-7C12-4DE3-8642-46BA4C936490}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A388B63-BEAD-4077-A49C-7848C711A793}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P43</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5281F452-FF85-43A2-8ACC-8D82517BBFF2}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P41</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DB79D5FC-8623-46BA-9764-5F3E2FB39A2B}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E46DAC76-E897-4045-8465-1788B562CB5D}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7A6B6862-4DFF-40A3-A9F0-3D4C3D3D779B}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36BBD664-203B-4631-8C9D-1F4BA94E42FF}">
+          <x14:cfRule type="dataBar" id="{94E636AD-8F19-4649-AECC-DA7B30EF6C99}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -7432,171 +7600,6 @@
           </x14:cfRule>
           <xm:sqref>P22</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2D394EE3-CF63-4E6F-8297-26D35F3A83E2}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E89EB66-182A-45E0-8C50-C5341E6E4197}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1A9D89D4-D65D-4DE4-B74F-12273D486FB1}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9A9D8765-A09D-446B-BF66-74A350E070CB}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P16</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{86E4259F-E9F4-419F-BDB8-BB8EFC81956E}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DBC39673-F27B-443E-ACD0-87F8BEADB72F}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF2449F8-E967-4147-B4C8-7B62D8C2564D}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P23</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAF32E59-878A-4CE0-9AAB-5C9D8123B898}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>O28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{651A4040-D86D-4E99-948C-A6B7F0C58836}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B6591D9F-83EB-4E94-8870-93A6E0284868}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F780785A-6130-41B9-8319-D2B81794904F}">
-            <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="false">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>P28</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
